--- a/data/clients/roads_potential.xlsx
+++ b/data/clients/roads_potential.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L158"/>
+  <dimension ref="A1:N158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,6 +486,16 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
+          <t>car_services</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>parkings</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>potential</t>
         </is>
       </c>
@@ -536,6 +546,72 @@
         </is>
       </c>
       <c r="K2" t="inlineStr">
+        <is>
+          <t>['Брчко гас БП Лончари 1'
+ 'Brčko gas BP Lončari 2 - Брчко гас БП Лончари 2' 'Tankstella'
+ 'Nikic Company' 'DANE KOMERC' 'Euro Benz Auto Plin']</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N2" t="n">
+        <v>3.552</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>327</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Lončari - Pelagićevo</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>44.9424772, 18.6805129</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>44.9108575, 18.6110516</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>[(44.94287, 18.67867), (44.94272, 18.67861), (44.94213, 18.6783), (44.94095, 18.67768), (44.94085, 18.67761), (44.93972, 18.67692), (44.9393, 18.67662), (44.93785, 18.67562), (44.93767, 18.6755), (44.93672, 18.67481), (44.9367, 18.67479), (44.93611, 18.67434), (44.93539, 18.67377), (44.93515, 18.67358), (44.93468, 18.6732), (44.93324, 18.67199), (44.93291, 18.6717), (44.93216, 18.67102), (44.93119, 18.67008), (44.9309, 18.6698), (44.93062, 18.66952), (44.93034, 18.66923), (44.93007, 18.66894), (44.9298, 18.66864), (44.92952, 18.66834), (44.92926, 18.66804), (44.92899, 18.66773), (44.92873, 18.66741), (44.92831, 18.6669), (44.92811, 18.66664), (44.92722, 18.66546), (44.92676, 18.6649), (44.92622, 18.66412), (44.92597, 18.66378), (44.92564, 18.66328), (44.92494, 18.66218), (44.92372, 18.66017), (44.92331, 18.65947), (44.92309, 18.65909), (44.92286, 18.6587), (44.92264, 18.65831), (44.92241, 18.65792), (44.9222, 18.65753), (44.92198, 18.65713), (44.92175, 18.6567), (44.92153, 18.65626), (44.92131, 18.65583), (44.92109, 18.65539), (44.92015, 18.65353), (44.91935, 18.65183)]</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>7.28</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>[44.91386]</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>['Sloboprom' 'Prodaja CD-ova']</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
         <is>
           <t>['Brcko gas - benzinska pumpa i samousluzna praonica'
  'Брчко гас БП Лончари 1'
@@ -543,64 +619,17 @@
  'Tankstella' 'Nikic Company' 'DANE KOMERC' 'Euro Benz Auto Plin']</t>
         </is>
       </c>
-      <c r="L2" t="n">
-        <v>3.552</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>327</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Lončari - Pelagićevo</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>44.9424772, 18.6805129</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>44.9108575, 18.6110516</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>[(44.94287, 18.67867), (44.94272, 18.67861), (44.94213, 18.6783), (44.94095, 18.67768), (44.94085, 18.67761), (44.93972, 18.67692), (44.9393, 18.67662), (44.93785, 18.67562), (44.93767, 18.6755), (44.93672, 18.67481), (44.9367, 18.67479), (44.93611, 18.67434), (44.93539, 18.67377), (44.93515, 18.67358), (44.93468, 18.6732), (44.93324, 18.67199), (44.93291, 18.6717), (44.93216, 18.67102), (44.93119, 18.67008), (44.9309, 18.6698), (44.93062, 18.66952), (44.93034, 18.66923), (44.93007, 18.66894), (44.9298, 18.66864), (44.92952, 18.66834), (44.92926, 18.66804), (44.92899, 18.66773), (44.92873, 18.66741), (44.92831, 18.6669), (44.92811, 18.66664), (44.92722, 18.66546), (44.92676, 18.6649), (44.92622, 18.66412), (44.92597, 18.66378), (44.92564, 18.66328), (44.92494, 18.66218), (44.92372, 18.66017), (44.92331, 18.65947), (44.92309, 18.65909), (44.92286, 18.6587), (44.92264, 18.65831), (44.92241, 18.65792), (44.9222, 18.65753), (44.92198, 18.65713), (44.92175, 18.6567), (44.92153, 18.65626), (44.92131, 18.65583), (44.92109, 18.65539), (44.92015, 18.65353), (44.91935, 18.65183)]</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>7.28</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>[44.91386]</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>['Sloboprom' 'Prodaja CD-ova']</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>['Brcko gas - benzinska pumpa i samousluzna praonica' 'TM Petrol'
- 'SM Promet' 'Брчко гас БП Лончари 1'
- 'Brčko gas BP Lončari 2 - Брчко гас БП Лончари 2' 'Tankstella' 'Agreks'
- 'Tankstella' 'Nikic Company' 'DANE KOMERC' 'Euro Benz Auto Plin']</t>
-        </is>
-      </c>
-      <c r="L3" t="n">
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N3" t="n">
         <v>4.625905778954599</v>
       </c>
     </row>
@@ -651,11 +680,20 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>['TM Petrol' 'SM Promet' 'Benzinska pumpa Nikić Blaževac' 'Gas Station'
- 'Belamionix' 'Gas Station']</t>
-        </is>
-      </c>
-      <c r="L4" t="n">
+          <t>['TM Petrol' 'SM Promet']</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
         <v>5.01877660119352</v>
       </c>
     </row>
@@ -709,12 +747,20 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>['Gazprom' 'Benzinska pumpa Brčko gas' 'Benzinska Pumpa Limikom'
- 'Donji Orlovci' 'Benzinska pumpa Gagi trans' 'Nešković' 'Paspalj'
- 'Nešković' 'Krajinapetrol' 'Tankstella' 'Gagi Trans']</t>
-        </is>
-      </c>
-      <c r="L5" t="n">
+          <t>['Donji Orlovci']</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>['Parking' 'Parking' 'Parking (Dvorana)']</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
         <v>24.12905393568277</v>
       </c>
     </row>
@@ -768,13 +814,22 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>['Gazprom' 'Benzinska pumpa Reunion' 'Benzinska pumpa Brčko gas'
- 'Benzinska Pumpa Limikom' 'Donji Orlovci' 'Benzinska pumpa Gagi trans'
- 'Nešković' 'Paspalj' 'Nešković' 'Krajinapetrol' 'Tankstella' 'Gagi Trans'
- 'Tankstella' 'Hifa Petrol' 'Tankstella' 'VEMI']</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
+          <t>['Gazprom' 'Benzinska pumpa Brčko gas' 'Benzinska Pumpa Limikom'
+ 'Donji Orlovci' 'Benzinska pumpa Gagi trans' 'Nešković' 'Paspalj'
+ 'Nešković' 'Krajinapetrol' 'Tankstella' 'Gagi Trans']</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>['Auto Rača']</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>['Parking' 'Parking' 'Parking (Dvorana)']</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
         <v>2391.571574146076</v>
       </c>
     </row>
@@ -825,11 +880,21 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>['Benzinska pumpa Reunion' 'Tankstella' 'Hifa Petrol' 'Tankstella' 'VEMI'
- 'Slavuljica 1' 'Slavuljica 2' 'Paspalj']</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
+          <t>['Benzinska pumpa Reunion' 'Tankstella' 'Hifa Petrol' 'Tankstella'
+ 'Nestro Petrol' 'VEMI']</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
         <v>-29.87548609220762</v>
       </c>
     </row>
@@ -880,10 +945,20 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>['Slavuljica 1' 'Slavuljica 2' 'Paspalj' 'Benzinska pumpa']</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
+          <t>['Slavuljica 1' 'Slavuljica 2' 'Paspalj']</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
         <v>39.324401170874</v>
       </c>
     </row>
@@ -935,12 +1010,20 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>['Petrol' 'Petrol' 'Gagi Petrol' 'Gas petrol' 'Naftaco' 'Nešković'
- 'K-4 AUTOGAS KRAJINAPETROL A.D.' 'Tankstella' 'VEMI Benzinska pumpa'
- 'Benzinska pumpa']</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
+          <t>['Benzinska pumpa']</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
         <v>102.4046346629857</v>
       </c>
     </row>
@@ -998,14 +1081,26 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>['Petrol' 'Petrol' 'Krajinapetrol' 'BPS MILCO' 'NIS Petrol' 'NIS Petrol 2'
- 'Nešković' 'Krajinapetrol' 'Gagi Petrol' 'Gas petrol' 'Naftaco'
- 'Nešković' 'K-4 AUTOGAS KRAJINAPETROL A.D.' 'Tankstella' 'Nešković'
- 'VEMI Benzinska pumpa' 'NES Petrol' 'ХИФА Петрол Република Српска'
- 'Petrol']</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
+          <t>['Petrol' 'Petrol' 'Gagi Petrol' 'Gas petrol' 'Naftaco' 'Nešković'
+ 'K-4 AUTOGAS KRAJINAPETROL A.D.' 'Tankstella' 'VEMI Benzinska pumpa']</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>['Verano Motors' 'DR Auto doo' 'Prodavac polovnih automobila'
+ 'GUMA M Banja Luka' 'C-Auto' 'Auto Plus d.o.o. Banja Luka' 'GT Auto'
+ 'Metago' 'AutoEconomic' 'Berlijeta d.o.o AMC Banja Luka' 'Lada Auto'
+ 'Trio-Auto doo' 'Prodaja polovnih automobila' 'Hyundai' 'Amc Tinacco'
+ "Rale's Rupa Don House" 'Sekic Auto' 'GLS auto' 'VD AUTO'
+ 'Rent A Car Economic']</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>['P+R Bingo - Park and ride']</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
         <v>97.9442686737148</v>
       </c>
     </row>
@@ -1073,17 +1168,36 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>['Petrol' 'Petrol' 'Krajinapetrol' 'Крајинапетрол' 'Super Petrol'
- 'ЕуроБенз' 'BS Gazprom Banja Luka' 'Крајина петрол' 'Knez Petrol BIH'
- 'BPS MILCO' 'NIS Petrol' 'NIS Petrol 2' 'Nešković' 'Krajinapetrol'
- 'Gagi Petrol' 'Gas petrol' 'Naftaco' 'Nešković' 'Nešković' 'NES Petrol'
- 'ХИФА Петрол Република Српска' 'Petrol' 'NES Petrol' 'Нешковић'
- 'Super Petrol' 'Гас Петрол' 'ТиОил' 'Krajinapotrol' 'Krajinapetrol'
- 'Super Petrol- BS Borik' 'Nešković benzinska pumpa' 'НЕС Петрол'
- 'Nešković' 'Petrol' 'Obilićevo']</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
+          <t>['Petrol' 'Petrol' 'Krajinapetrol' 'NIS Petrol' 'NIS Petrol 2' 'Nešković'
+ 'Krajinapetrol' 'Gagi Petrol' 'Gas petrol' 'Naftaco' 'Nešković'
+ 'Nešković' 'NES Petrol' 'ХИФА Петрол Република Српска' 'Petrol'
+ 'Krajinapetrol']</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>['Verano Motors' 'Auto salon "KRAMAR"' 'Sladaboni' 'Optimum S.P.'
+ 'Suzuki Centar' 'Auto Plus BH' 'OMNIAauto' 'DM Topić auto' 'Kljajić auto'
+ 'Hit Auto' 'DR Auto doo' 'Prodavac polovnih automobila'
+ 'Prodaja polovnih automobila' 'GUMA M Banja Luka' 'C-Auto'
+ 'Auto Plus d.o.o. Banja Luka' 'GT Auto' 'Metago' 'AutoEconomic'
+ 'Autokuća Jajčević d.o.o.' 'Berlijeta d.o.o AMC Banja Luka' 'Lada Auto'
+ 'AC Nešković' 'Salon Banja Luka' 'Auto servis NV'
+ 'Prodaja polovnih automobila' 'Hyundai' 'Amc Tinacco'
+ "Rale's Rupa Don House" 'DS servis' 'Ауто пијаца' 'ŠUMOOPREMA doo'
+ 'Pneumatika todorinovic' 'GLS auto' 'VD AUTO' 'Rent A Car Economic']</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>['Паркинг сервис - ПАУК' 'P+R Bingo - Park and ride'
+ 'Braće Podgornika 49 Parking' 'Паркинг Parking' 'Parking Palas' 'Parking'
+ 'Braće Podgornika 37b Parking' 'Parking' 'Garaža Borik'
+ 'Parking Old School Apartmani Banja Luka' 'Garaža Kampus'
+ 'Parking Stara Stanica' 'Bin bin parking' 'Parking Bulevar']</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
         <v>105.228487901998</v>
       </c>
     </row>
@@ -1148,15 +1262,38 @@
       <c r="K12" t="inlineStr">
         <is>
           <t>['Petrol' 'Krajinapetrol' 'Крајинапетрол' 'Super Petrol' 'ЕуроБенз'
- 'BS Gazprom Banja Luka' 'Крајина петрол' 'Knez Petrol BIH' 'Gas petrol'
- 'Naftaco' 'Nešković' 'Nešković' 'NES Petrol'
- 'ХИФА Петрол Република Српска' 'Petrol' 'Eurogas' 'NES Petrol' 'Нешковић'
- 'Super Petrol' 'Гас Петрол' 'ТиОил' 'Krajinapotrol' 'Krajinapetrol'
- 'Super Petrol- BS Borik' 'Nešković benzinska pumpa' 'НЕС Петрол'
- 'Nešković' 'Petrol' 'Obilićevo']</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
+ 'BS Gazprom Banja Luka' 'Крајина петрол' 'Gas petrol' 'Naftaco'
+ 'Nešković' 'Nešković' 'NES Petrol' 'ХИФА Петрол Република Српска'
+ 'Petrol' 'NES Petrol' 'Нешковић' 'Super Petrol' 'Гас Петрол' 'ТиОил'
+ 'Krajinapotrol' 'Нестро' 'Krajinapetrol' 'Super Petrol- BS Borik'
+ 'Nešković benzinska pumpa' 'НЕС Петрол' 'Nešković' 'Petrol']</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>['Verano Motors' 'Auto salon "KRAMAR"' 'Sladaboni' 'Auto centar Tomić'
+ 'Autokomerc V.S. d.o.o.' 'Auto Plus d.o.o. Banja Luka' 'GT Auto' 'Metago'
+ 'AutoEconomic' 'Autokuća Jajčević d.o.o.'
+ 'Berlijeta d.o.o AMC Banja Luka' 'Lada Auto' 'AC Nešković'
+ 'Salon Banja Luka' 'Auto servis NV' '• ТОП ауто •' 'EXCLUSIVE AUTO'
+ 'ЛАДА Ауто д.о.о.' 'Ауди центар Бања Лука' 'Numero Uno'
+ 'Auto Das d.o.o. Banja Luka' 'AutoVizija' 'Autopark Banja Luka' 'Hyundai'
+ 'Amc Tinacco' 'Rent a Car Klikom' 'DS servis' 'Ауто пијаца'
+ 'ŠUMOOPREMA doo' 'MB Auto' 'Pneumatika todorinovic'
+ 'Balkan VIP Cars - Prodaja luksuznih vozila HR , BIH i SRB' 'GLS auto'
+ 'Central auto' 'ProdajSvojAuto.ba' 'KIK AUTO' 'Auto Leo' 'VD AUTO'
+ 'Rent A Car Economic']</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>['Паркинг сервис - ПАУК' 'Braće Podgornika 49 Parking' 'Паркинг Parking'
+ 'Parking Palas' 'Parking' 'Braće Podgornika 37b Parking' 'Parking'
+ 'Garaža Borik' 'Parking Old School Apartmani Banja Luka' 'Garaža Kampus'
+ 'Parking Stara Stanica' 'Bin bin parking' 'Parking Bulevar']</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
         <v>239747.2707552092</v>
       </c>
     </row>
@@ -1221,15 +1358,38 @@
       <c r="K13" t="inlineStr">
         <is>
           <t>['Petrol' 'Krajinapetrol' 'Крајинапетрол' 'Super Petrol' 'ЕуроБенз'
- 'BS Gazprom Banja Luka' 'Крајина петрол' 'Knez Petrol BIH' 'Gas petrol'
- 'Naftaco' 'Nešković' 'Nešković' 'NES Petrol'
- 'ХИФА Петрол Република Српска' 'Petrol' 'Eurogas' 'NES Petrol' 'Нешковић'
- 'Super Petrol' 'Гас Петрол' 'ТиОил' 'Krajinapotrol' 'Krajinapetrol'
- 'Super Petrol- BS Borik' 'Nešković benzinska pumpa' 'НЕС Петрол'
- 'Nešković' 'Petrol' 'Obilićevo']</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
+ 'BS Gazprom Banja Luka' 'Крајина петрол' 'Gas petrol' 'Naftaco'
+ 'Nešković' 'Nešković' 'NES Petrol' 'ХИФА Петрол Република Српска'
+ 'Petrol' 'NES Petrol' 'Нешковић' 'Super Petrol' 'Гас Петрол' 'ТиОил'
+ 'Krajinapotrol' 'Нестро' 'Krajinapetrol' 'Super Petrol- BS Borik'
+ 'Nešković benzinska pumpa' 'НЕС Петрол' 'Nešković' 'Petrol']</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>['Verano Motors' 'Auto salon "KRAMAR"' 'Sladaboni' 'Auto centar Tomić'
+ 'Autokomerc V.S. d.o.o.' 'Auto Plus d.o.o. Banja Luka' 'GT Auto' 'Metago'
+ 'AutoEconomic' 'Autokuća Jajčević d.o.o.'
+ 'Berlijeta d.o.o AMC Banja Luka' 'Lada Auto' 'AC Nešković'
+ 'Salon Banja Luka' 'Auto servis NV' '• ТОП ауто •' 'EXCLUSIVE AUTO'
+ 'ЛАДА Ауто д.о.о.' 'Ауди центар Бања Лука' 'Numero Uno'
+ 'Auto Das d.o.o. Banja Luka' 'AutoVizija' 'Autopark Banja Luka' 'Hyundai'
+ 'Amc Tinacco' 'Rent a Car Klikom' 'DS servis' 'Ауто пијаца'
+ 'ŠUMOOPREMA doo' 'MB Auto' 'Pneumatika todorinovic'
+ 'Balkan VIP Cars - Prodaja luksuznih vozila HR , BIH i SRB' 'GLS auto'
+ 'Central auto' 'ProdajSvojAuto.ba' 'KIK AUTO' 'Auto Leo' 'VD AUTO'
+ 'Rent A Car Economic']</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>['Паркинг сервис - ПАУК' 'Braće Podgornika 49 Parking' 'Паркинг Parking'
+ 'Parking Palas' 'Parking' 'Braće Podgornika 37b Parking' 'Parking'
+ 'Garaža Borik' 'Parking Old School Apartmani Banja Luka' 'Garaža Kampus'
+ 'Parking Stara Stanica' 'Bin bin parking' 'Parking Bulevar']</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
         <v>239747.2707552092</v>
       </c>
     </row>
@@ -1290,14 +1450,27 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>['Auto Gas' 'Ibos Petrol' 'KRAJINAPETROL' 'Bozic Promet' 'Крајинапетрол'
- 'Super Petrol' 'ЕуроБенз' 'Knez Petrol BIH' 'NES Petrol' 'Petrol'
- 'Eurogas' 'NES Petrol' 'Krajinapotrol' 'Krajinapetrol'
- 'Super Petrol- BS Borik' 'Nešković benzinska pumpa' 'НЕС Петрол'
- 'Nešković' 'Obilićevo']</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
+          <t>['Крајинапетрол' 'Super Petrol' 'ЕуроБенз' 'NES Petrol' 'Petrol' 'Eurogas'
+ 'NES Petrol' 'Krajinapotrol' 'Krajinapetrol' 'Super Petrol- BS Borik'
+ 'Nešković benzinska pumpa' 'НЕС Петрол' 'Nešković']</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>['Sladaboni' 'Auto centar Tomić' 'Autokomerc V.S. d.o.o.' 'Auto servis NV'
+ '• ТОП ауто •' 'EXCLUSIVE AUTO' 'ЛАДА Ауто д.о.о.'
+ 'Ауди центар Бања Лука' 'Autopark Banja Luka' 'Rent a Car Klikom'
+ 'DS servis' 'Ауто пијаца' 'ŠUMOOPREMA doo' 'Pneumatika todorinovic'
+ 'Balkan VIP Cars - Prodaja luksuznih vozila HR , BIH i SRB'
+ 'Central auto' 'Auto Leo']</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>['Garaža Borik' 'Garaža Kampus']</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
         <v>785.8149835935255</v>
       </c>
     </row>
@@ -1348,10 +1521,20 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>['Bor Petrol' 'Auto Gas' 'Ibos Petrol' 'KRAJINAPETROL' 'Bozic Promet']</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
+          <t>['Auto Gas' 'Ibos Petrol' 'KRAJINAPETROL' 'Bozic Promet']</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
         <v>5541.668532506332</v>
       </c>
     </row>
@@ -1402,10 +1585,20 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>['Bor Petrol' 'Slavuljica Petrol']</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
+          <t>['Bor Petrol']</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>['Podaja automobila' 'Auto kuća ŽEKS Kotor Varoš']</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
         <v>125.0538443973884</v>
       </c>
     </row>
@@ -1457,12 +1650,20 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>['НИС Петрол - Мали Зворник' 'МН' 'КESO - PROMET' 'Neškovic' 'SAS'
- 'HIFA Petrol' 'Оаза' 'EURO Petrol Oil' 'Dalprom Petrol' 'PETROL'
- 'KESO - PROMET' 'Mahala br-30' 'SAS']</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
+          <t>['KESO - PROMET' 'Mahala br-30' 'SAS']</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
         <v>-74.31556104292918</v>
       </c>
     </row>
@@ -1516,7 +1717,17 @@
           <t>['Sana-Kop' 'Ševigon']</t>
         </is>
       </c>
-      <c r="L18" t="n">
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
         <v>24.86772584017445</v>
       </c>
     </row>
@@ -1570,7 +1781,22 @@
           <t>['Krajinapetrol' 'NES Petrol']</t>
         </is>
       </c>
-      <c r="L19" t="n">
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>['MG Auto Centar']</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>['Temple of Saint Sava Free Parking' 'Free Parking Boraca Srpskih'
+ 'Bus Station Parking' 'Jovana Raškovića Parking'
+ 'Sime Šolaje Free Parking II' 'Svetog Save Parking'
+ 'Arena Komercijalne banke Free Parking' 'Free Parking'
+ 'King Petar I Karađorđević Square Parking' 'Паркинг Симе Шолаје'
+ 'Public Medical Centre Free Parking' 'NMS Parking Garage']</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
         <v>10663.9429135162</v>
       </c>
     </row>
@@ -1621,11 +1847,20 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>['Нестро' 'Benzinska pumpa Nešković' 'Нешковић' 'Сарајевоинвест'
- 'Шпиц Петрол' 'Нешковић/ Nešković' 'Energopetrol']</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
+          <t>['Нешковић/ Nešković' 'Energopetrol']</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>['Перфект / Perfect']</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
         <v>299.8606545761169</v>
       </c>
     </row>
@@ -1680,7 +1915,18 @@
  'Шпиц Петрол']</t>
         </is>
       </c>
-      <c r="L21" t="n">
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>["Angel's Cars" "Angel's Cars &amp; Rent-a-car" 'Auto "Rašević"' 'Жељо ауто']</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>['Бесплатан паркинг испред Филозофског факултета'
+ 'Паркинг тржног центра Том' 'Паркинг Олимп']</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
         <v>14.24617784391152</v>
       </c>
     </row>
@@ -1731,11 +1977,21 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>['Нестро' 'Benzinska pumpa Nešković' 'Нешковић' 'Сарајевоинвест'
- 'Нешковић / Nešković']</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
+          <t>['Нестро' 'Benzinska pumpa Nešković' 'Нешковић' 'Сарајевоинвест']</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>["Angel's Cars" "Angel's Cars &amp; Rent-a-car" 'Auto "Rašević"']</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>['Бесплатан паркинг испред Филозофског факултета'
+ 'Паркинг тржног центра Том' 'Паркинг Олимп']</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
         <v>105.0755566237034</v>
       </c>
     </row>
@@ -1786,10 +2042,20 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>['BV Petrol' 'Нешковић / Nešković']</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
+          <t>['Нешковић / Nešković']</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
         <v>5.328919952736529</v>
       </c>
     </row>
@@ -1843,7 +2109,17 @@
           <t>[]</t>
         </is>
       </c>
-      <c r="L24" t="n">
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
         <v>-148.9322513121562</v>
       </c>
     </row>
@@ -1897,7 +2173,17 @@
           <t>[]</t>
         </is>
       </c>
-      <c r="L25" t="n">
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
         <v>4.50201894371503</v>
       </c>
     </row>
@@ -1948,10 +2234,20 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>['Hifa petrol']</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>['Parking Granične policije' 'Градска Пијаца' 'Паркинг "Трг палих бораца"']</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
         <v>27.89210007323128</v>
       </c>
     </row>
@@ -2002,10 +2298,20 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>['Hifa petrol']</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
+          <t>['Hifa petrol' 'Нестро / Nestro']</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>['Parking Granične policije' 'Градска Пијаца' 'Паркинг "Трг палих бораца"']</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
         <v>3690.769637135573</v>
       </c>
     </row>
@@ -2059,7 +2365,17 @@
           <t>['Hellas d.o.o.']</t>
         </is>
       </c>
-      <c r="L28" t="n">
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
         <v>8.29488303780083</v>
       </c>
     </row>
@@ -2111,10 +2427,21 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>['Petrol' 'Best Company Trebinje' 'ManCoM' 'Nešković']</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>['Parking lot "Sjeverni logor"' 'Parking' 'Public Parking' 'Free parking'
+ 'JKP "Parking Servis"']</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
         <v>81.5880309181069</v>
       </c>
     </row>
@@ -2169,7 +2496,18 @@
           <t>['Petrol' 'Best Company Trebinje' 'ManCoM' 'Nešković']</t>
         </is>
       </c>
-      <c r="L30" t="n">
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>['SPAR Auto']</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>['Parking lot "Sjeverni logor"' 'Parking' 'Public Parking' 'Free parking'
+ 'JKP "Parking Servis"']</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
         <v>3524.905352924473</v>
       </c>
     </row>
@@ -2220,10 +2558,20 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>['Pojužina benz' 'Đerić PROM' 'ЗиС компанија']</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
         <v>18.10394877613265</v>
       </c>
     </row>
@@ -2274,10 +2622,20 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>['Gas station "Nešković"' 'ManCoM Gacko' 'Pumpa RiTE']</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
         <v>458.737280941039</v>
       </c>
     </row>
@@ -2332,7 +2690,17 @@
           <t>['Nešković' 'НИС Петрол' 'Nešković']</t>
         </is>
       </c>
-      <c r="L33" t="n">
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>['MIRAKIS']</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
         <v>4409.244940061843</v>
       </c>
     </row>
@@ -2386,7 +2754,17 @@
           <t>[]</t>
         </is>
       </c>
-      <c r="L34" t="n">
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
         <v>72.33944377282671</v>
       </c>
     </row>
@@ -2437,11 +2815,20 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>['Krajinapetrol' 'Ina' 'NEŠKOVIĆ' 'Gagi Trans' 'Gagi trans' 'Ina'
- 'Dirus Projekt d.o.o.' 'Nešković']</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
+          <t>['Krajinapetrol' 'Ina' 'NEŠKOVIĆ' 'Gagi Trans']</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>['"BOBAN.DES"']</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
         <v>-25.69817998782031</v>
       </c>
     </row>
@@ -2493,11 +2880,20 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>['Došlić' 'Kompanija ARS' 'Benzinska pumpa Ars' 'Nešković' 'Gagi trans'
- 'Ina' 'Dirus Projekt d.o.o.' 'Nešković']</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
+          <t>['Gagi trans' 'Ina' 'Dirus Projekt d.o.o.' 'Nešković']</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>['Parking (ispred Opštine)' 'Parking (kod Doma kulture)']</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
         <v>117.1377395110567</v>
       </c>
     </row>
@@ -2549,11 +2945,20 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>['Došlić' 'Kompanija ARS' 'Benzinska pumpa Ars' 'Nešković'
- 'Gagi Trans Benzinska Pumpa Draksenic']</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
+          <t>['Došlić' 'Kompanija ARS' 'Benzinska pumpa Ars' 'Nešković']</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>['Parking (ispred Opštine)' 'Parking (kod Doma kulture)']</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
         <v>2127.304198927347</v>
       </c>
     </row>
@@ -2607,12 +3012,20 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>['Крајинапетрол' 'Madžar' '"NEŠKOVIĆ" Benziska Pumpa' 'Super Petrol'
- 'West Petrol' 'BP "DRAGSTES"' 'BPS.SUPER.PETROL' 'Nešković'
- 'Krajina Petrol' 'Brčko Gas' 'OKMT' 'Dejanac Promet' 'Hifa Petrol']</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
+          <t>['OKMT' 'Dejanac Promet' 'Hifa Petrol']</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>['Auto salon Boroja' 'Auto Nezic']</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
         <v>15.45038336965917</v>
       </c>
     </row>
@@ -2664,11 +3077,20 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>['Krajinapetrol' 'Nešković' 'NEŠKOVIC' '"DRAGSTES" Benzinska Pumpa'
- 'Delta Petrol' 'Neskovic' 'Nesković' 'Slavuljica Petrol']</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
+          <t>['Nešković' 'NEŠKOVIC' '"DRAGSTES" Benzinska Pumpa' 'Delta Petrol']</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
         <v>-25635.10901855513</v>
       </c>
     </row>
@@ -2722,7 +3144,17 @@
           <t>['Krajinapetrol' 'Neskovic' 'Nesković' 'Slavuljica Petrol']</t>
         </is>
       </c>
-      <c r="L40" t="n">
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>['Продаја половних аутомобила' 'Terracar Salon' 'Terracar d.o.o. Srbac']</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
         <v>12914.99082904893</v>
       </c>
     </row>
@@ -2776,12 +3208,20 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>['Nada' 'SAS Petrol d.o.o.' 'Gas Station' 'Kort Petrol' 'Gas Station'
- 'Nešković Pumpa' 'PASPALJ KOMERC' 'Brčko Gas' 'Ina' 'Petrol'
- 'Slavujica Petrol' 'Gas Station' 'Kuzmanović']</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
+          <t>['Slavujica Petrol']</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
         <v>28.64583005027074</v>
       </c>
     </row>
@@ -2840,7 +3280,17 @@
  'Slavujica Petrol' 'Gas Station' 'Kuzmanović']</t>
         </is>
       </c>
-      <c r="L42" t="n">
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>['Braća Đukić']</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
         <v>153028.0347207048</v>
       </c>
     </row>
@@ -2894,12 +3344,22 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>['Nada' 'Hifa Petrol' 'SAS Petrol d.o.o.' 'Gas Station' 'Kort Petrol'
- 'Gas Station' 'Nešković Pumpa' 'PASPALJ KOMERC' 'Brčko Gas' 'Ina'
- 'Slavujica Petrol' 'Gas Station' 'Kuzmanović']</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
+          <t>['Nada' 'SAS Petrol d.o.o.' 'Gas Station' 'Kort Petrol' 'Gas Station'
+ 'Nešković Pumpa' 'PASPALJ KOMERC' 'Brčko Gas' 'Ina' 'Slavujica Petrol'
+ 'Gas Station' 'Kuzmanović']</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>['Eden']</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
         <v>27.47125414985402</v>
       </c>
     </row>
@@ -2952,15 +3412,20 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>['Petrol' 'v.o.o.d.o.o. shops' 'CARAPANKO DOO' 'Nada'
- 'INA d.d. BENZINSKA POSTAJA MARSONIJA SJEVER' 'HoldINA d.o.o.'
- 'Rafinerija Nafte CNG Station' 'Vidić Gas Station' 'Brčko Gas' 'INA'
- 'INA' 'Ina' 'Adria Oil Slavonski Brod 2' 'Stanić Petrol'
- 'INA d.d. - Sjeverna vezna cesta' 'Hifa Petrol' 'SAS Petrol d.o.o.'
- 'Gas Station']</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
+          <t>['Nada' 'Hifa Petrol' 'SAS Petrol d.o.o.' 'Gas Station']</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>['Apartments Moto klub Brod' 'Eden']</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
         <v>36.38496693102937</v>
       </c>
     </row>
@@ -3015,17 +3480,26 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>['Antunović' 'Karamujić Petrol' 'Gazprom' 'Cerol'
- 'MB-RADIĆ DOO Bijeljinska 76 Brcko'
- 'Brcko gas - benzinska pumpa i samousluzna praonica'
+          <t>['Brcko gas - benzinska pumpa i samousluzna praonica'
  'Брчко гас БП Лончари 1'
  'Brčko gas BP Lončari 2 - Брчко гас БП Лончари 2' 'Tankstella' 'Agreks'
- 'Tankstella' 'Nikic Company' 'DANE KOMERC' 'Euro Benz Auto Plin'
- 'BP Nešković' 'Tankstella' 'Belamionix 15 Mostarska Brcko' 'HIFA OIL'
- 'Electric charger station']</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
+ 'Tankstella' 'Nikic Company' 'DANE KOMERC' 'Euro Benz Auto Plin']</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>['Parking' 'Podzemna Garaža' 'Parking Dom Zdravlja' 'Parking'
+ 'Parking Islahijet' 'Parking JP Luka' 'Parking' 'Mertz'
+ 'Parking Garaža u centru grada' 'Parking Bingo' 'Parking kod BIZ-a'
+ 'Parking Kasarna' 'Parking' 'Parking Bingo' 'Auto Event Hot Tyres']</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
         <v>25.16299639743596</v>
       </c>
     </row>
@@ -3084,15 +3558,21 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>['НИС Петрол' 'Nešković' 'Intergaj' 'Gazprom' 'Euro Petrol Oil' 'Nešković'
- 'Nešković' '4. april-Trifković' 'Nešković' 'Padine Megasistem' 'Car Wash'
- 'Despotović' 'BRČKO GAS benzinska pumpa i motel' 'Нешковић' 'MancoM'
- 'Hifa Oil' 'Hifa Oil' 'Петрол Агротехника' 'Samousluzna Praonica'
- 'Monaco' 'Нешковић' 'Agrokomerc' 'Teco Promet d.o.o.' 'MB Radić'
- 'BP Petrić' 'Firma BiH' 'BP Petrić D.o.o' 'Benzinska Pumpa Rottal']</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
+          <t>['MB Radić' 'BP Petrić' 'Firma BiH' 'BP Petrić D.o.o'
+ 'Benzinska Pumpa Rottal']</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>['Parking kod Saborne crkve' 'Parking' 'Parking']</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
         <v>32.73569481184786</v>
       </c>
     </row>
@@ -3152,14 +3632,24 @@
       <c r="K47" t="inlineStr">
         <is>
           <t>['НИС Петрол' 'Nešković' 'Intergaj' 'Gazprom' 'Euro Petrol Oil' 'Nešković'
- 'Nešković' '4. april-Trifković' 'Nešković' 'Padine Megasistem' 'Car Wash'
- 'Despotović' 'BRČKO GAS benzinska pumpa i motel' 'Нешковић' 'MancoM'
- 'Hifa Oil' 'Hifa Oil' 'Петрол Агротехника' 'Samousluzna Praonica'
- 'Monaco' 'Нешковић' 'Agrokomerc' 'Teco Promet d.o.o.' 'MDM COMPANY'
- 'Ristić' 'BP DISKONT']</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
+ 'Nešković' '4. april-Trifković' 'Nešković' 'Car Wash' 'Despotović'
+ 'BRČKO GAS benzinska pumpa i motel' 'Нешковић' 'MancoM' 'Hifa Oil'
+ 'Петрол Агротехника' 'Samousluzna Praonica' 'Monaco' 'Нешковић'
+ 'Agrokomerc' 'Teco Promet d.o.o.']</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>['LD Auto d.o.o.' 'Auto elektricar Cosic-A' 'MPJ AUTO MAGACIN'
+ 'Ugljo - Automobili']</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>['Parking kod Saborne crkve' 'Parking' 'Parking']</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
         <v>747214.1334531965</v>
       </c>
     </row>
@@ -3210,11 +3700,20 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>['АгроВоће' 'MDM COMPANY' 'Ristić' 'BP DISKONT' 'CSP' 'Нешковић'
- 'BP Petrić' 'НИС Петрол' 'MN d.o.o. Loznica' 'D.O.O. "NINIC LINE"']</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
+          <t>['MDM COMPANY' 'BP DISKONT']</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
         <v>7.606399988395228</v>
       </c>
     </row>
@@ -3270,13 +3769,21 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>['Gazprom' 'Benzinska pumpa Brčko gas' 'Benzinska Pumpa Limikom'
- 'Donji Orlovci' 'Benzinska pumpa Gagi trans' 'Nešković' 'Paspalj'
- 'Nešković' 'Krajinapetrol' 'Tankstella' 'Gagi Trans' 'Došlić'
- 'Kompanija ARS' 'Benzinska pumpa Ars' 'Nešković']</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
+          <t>['Donji Orlovci' 'Došlić' 'Kompanija ARS' 'Benzinska pumpa Ars' 'Nešković']</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>['Parking' 'Parking' 'Parking (Dvorana)' 'Parking (ispred Opštine)'
+ 'Parking (kod Doma kulture)']</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
         <v>9314.582702544905</v>
       </c>
     </row>
@@ -3330,7 +3837,17 @@
           <t>[]</t>
         </is>
       </c>
-      <c r="L50" t="n">
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
         <v>9.619776821941668</v>
       </c>
     </row>
@@ -3385,13 +3902,21 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>['Крајинапетрол' 'Nešković' 'NEŠKOVIC' '"DRAGSTES" Benzinska Pumpa'
- 'Delta Petrol' 'Madžar' '"NEŠKOVIĆ" Benziska Pumpa' 'Super Petrol'
- 'West Petrol' 'BP "DRAGSTES"' 'BPS.SUPER.PETROL' 'Nešković'
- 'Krajina Petrol' 'Brčko Gas' 'OKMT']</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
+          <t>['Крајинапетрол' 'Madžar' '"NEŠKOVIĆ" Benziska Pumpa' 'Super Petrol'
+ 'West Petrol' 'Nešković' 'Krajina Petrol' 'Brčko Gas' 'OKMT']</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>['Auto Ranko doo Gradiška' 'Auto salon Boroja' 'Auto Nezic']</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
         <v>143068.5792410129</v>
       </c>
     </row>
@@ -3444,13 +3969,20 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>['Nešković' 'NEŠKOVIC' '"DRAGSTES" Benzinska Pumpa' 'Delta Petrol'
- '"GLIGA" Comerc 3' '"GLIGA" Komerc 2' 'Kubik AS' 'Vemi' 'Đukić Oil'
- 'Супер Петрол - Клашнице 1' 'Super petrol 2' 'Fortuna Oil 2, Klašnice'
- 'bp DRAGSTES']</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
+          <t>['Nešković' 'NEŠKOVIC' '"DRAGSTES" Benzinska Pumpa' 'Delta Petrol']</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
         <v>14804.38974575224</v>
       </c>
     </row>
@@ -3504,14 +4036,23 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>['"GLIGA" Comerc 3' '"GLIGA" Komerc 2' 'Kubik AS' 'Petrol' 'Petrol' 'Vemi'
- 'Đukić Oil' 'Супер Петрол - Клашнице 1' 'Super petrol 2'
- 'Fortuna Oil 2, Klašnice' 'bp DRAGSTES' 'Gagi Petrol' 'Gas petrol'
- 'Naftaco' 'Nešković' 'K-4 AUTOGAS KRAJINAPETROL A.D.' 'Tankstella'
- 'VEMI Benzinska pumpa']</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
+          <t>['"GLIGA" Komerc 2' 'Kubik AS' 'Vemi' 'Đukić Oil'
+ 'Супер Петрол - Клашнице 1' 'Super petrol 2' 'Fortuna Oil 2, Klašnice'
+ 'bp DRAGSTES']</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>['Auto Servis i otpad BMW ŠUŠNJAR' 'Marketauto' 'Euromodus'
+ 'VW Brčko Gas Banja Luka']</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
         <v>95.84415980909669</v>
       </c>
     </row>
@@ -3565,14 +4106,23 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>['"GLIGA" Comerc 3' '"GLIGA" Komerc 2' 'Kubik AS' 'Petrol' 'Petrol' 'Vemi'
- 'Đukić Oil' 'Супер Петрол - Клашнице 1' 'Super petrol 2'
- 'Fortuna Oil 2, Klašnice' 'bp DRAGSTES' 'Gagi Petrol' 'Gas petrol'
- 'Naftaco' 'Nešković' 'K-4 AUTOGAS KRAJINAPETROL A.D.' 'Tankstella'
- 'VEMI Benzinska pumpa']</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
+          <t>['"GLIGA" Komerc 2' 'Kubik AS' 'Vemi' 'Đukić Oil'
+ 'Супер Петрол - Клашнице 1' 'Super petrol 2' 'Fortuna Oil 2, Klašnice'
+ 'bp DRAGSTES']</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>['Auto Servis i otpad BMW ŠUŠNJAR' 'Marketauto' 'Euromodus'
+ 'VW Brčko Gas Banja Luka']</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
         <v>95.84415980909669</v>
       </c>
     </row>
@@ -3637,17 +4187,30 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>['Petrol' 'Petrol' 'Krajinapetrol' 'Крајинапетрол' 'Super Petrol'
- 'ЕуроБенз' 'BS Gazprom Banja Luka' 'Крајина петрол' 'Knez Petrol BIH'
- 'Gagi Petrol' 'Gas petrol' 'Naftaco' 'Nešković'
- 'K-4 AUTOGAS KRAJINAPETROL A.D.' 'Tankstella' 'Nešković'
- 'VEMI Benzinska pumpa' 'NES Petrol' 'ХИФА Петрол Република Српска'
- 'Petrol' 'NES Petrol' 'Нешковић' 'Super Petrol' 'Гас Петрол' 'ТиОил'
- 'Krajinapotrol' 'Krajinapetrol' 'Super Petrol- BS Borik'
- 'Nešković benzinska pumpa' 'НЕС Петрол' 'Nešković' 'Petrol' 'Obilićevo']</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
+          <t>['Petrol' 'Petrol' 'Gagi Petrol' 'Gas petrol' 'Naftaco' 'Nešković'
+ 'K-4 AUTOGAS KRAJINAPETROL A.D.' 'Tankstella' 'VEMI Benzinska pumpa'
+ 'Krajinapetrol']</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>['Verano Motors' 'DR Auto doo' 'Prodavac polovnih automobila'
+ 'GUMA M Banja Luka' 'C-Auto' 'Auto Plus d.o.o. Banja Luka' 'GT Auto'
+ 'Metago' 'AutoEconomic' 'Berlijeta d.o.o AMC Banja Luka' 'Lada Auto'
+ 'Trio-Auto doo' 'Prodaja polovnih automobila' 'Hyundai' 'Amc Tinacco'
+ "Rale's Rupa Don House" 'Sekic Auto' 'GLS auto' 'VD AUTO'
+ 'Rent A Car Economic']</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>['Паркинг сервис - ПАУК' 'Braće Podgornika 49 Parking' 'Паркинг Parking'
+ 'Parking Palas' 'Parking' 'Braće Podgornika 37b Parking' 'Parking'
+ 'Garaža Borik' 'Parking Old School Apartmani Banja Luka' 'Garaža Kampus'
+ 'Parking Stara Stanica' 'Bin bin parking' 'Parking Bulevar']</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
         <v>207.0285844935086</v>
       </c>
     </row>
@@ -3712,17 +4275,30 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>['Petrol' 'Petrol' 'Krajinapetrol' 'Крајинапетрол' 'Super Petrol'
- 'ЕуроБенз' 'BS Gazprom Banja Luka' 'Крајина петрол' 'Knez Petrol BIH'
- 'Gagi Petrol' 'Gas petrol' 'Naftaco' 'Nešković'
- 'K-4 AUTOGAS KRAJINAPETROL A.D.' 'Tankstella' 'Nešković'
- 'VEMI Benzinska pumpa' 'NES Petrol' 'ХИФА Петрол Република Српска'
- 'Petrol' 'NES Petrol' 'Нешковић' 'Super Petrol' 'Гас Петрол' 'ТиОил'
- 'Krajinapotrol' 'Krajinapetrol' 'Super Petrol- BS Borik'
- 'Nešković benzinska pumpa' 'НЕС Петрол' 'Nešković' 'Petrol' 'Obilićevo']</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
+          <t>['Petrol' 'Petrol' 'Gagi Petrol' 'Gas petrol' 'Naftaco' 'Nešković'
+ 'K-4 AUTOGAS KRAJINAPETROL A.D.' 'Tankstella' 'VEMI Benzinska pumpa'
+ 'Krajinapetrol']</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>['Verano Motors' 'DR Auto doo' 'Prodavac polovnih automobila'
+ 'GUMA M Banja Luka' 'C-Auto' 'Auto Plus d.o.o. Banja Luka' 'GT Auto'
+ 'Metago' 'AutoEconomic' 'Berlijeta d.o.o AMC Banja Luka' 'Lada Auto'
+ 'Trio-Auto doo' 'Prodaja polovnih automobila' 'Hyundai' 'Amc Tinacco'
+ "Rale's Rupa Don House" 'Sekic Auto' 'GLS auto' 'VD AUTO'
+ 'Rent A Car Economic']</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>['Паркинг сервис - ПАУК' 'Braće Podgornika 49 Parking' 'Паркинг Parking'
+ 'Parking Palas' 'Parking' 'Braće Podgornika 37b Parking' 'Parking'
+ 'Garaža Borik' 'Parking Old School Apartmani Banja Luka' 'Garaža Kampus'
+ 'Parking Stara Stanica' 'Bin bin parking' 'Parking Bulevar']</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
         <v>207.0285844935086</v>
       </c>
     </row>
@@ -3787,15 +4363,38 @@
       <c r="K57" t="inlineStr">
         <is>
           <t>['Petrol' 'Krajinapetrol' 'Крајинапетрол' 'Super Petrol' 'ЕуроБенз'
- 'BS Gazprom Banja Luka' 'Крајина петрол' 'Knez Petrol BIH' 'Gas petrol'
- 'Naftaco' 'Nešković' 'Nešković' 'NES Petrol'
- 'ХИФА Петрол Република Српска' 'Petrol' 'NES Petrol' 'Tankstella'
- 'Нешковић' 'Super Petrol' 'Гас Петрол' 'ТиОил' 'Krajinapotrol'
- 'Krajinapetrol' 'Super Petrol- BS Borik' 'Nešković benzinska pumpa'
- 'НЕС Петрол' 'Nešković' 'Petrol' 'Obilićevo']</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
+ 'BS Gazprom Banja Luka' 'Крајина петрол' 'Gas petrol' 'Naftaco'
+ 'Nešković' 'Nešković' 'NES Petrol' 'ХИФА Петрол Република Српска'
+ 'Petrol' 'NES Petrol' 'Нешковић' 'Super Petrol' 'Гас Петрол' 'ТиОил'
+ 'Krajinapotrol' 'Нестро' 'Krajinapetrol' 'Super Petrol- BS Borik'
+ 'Nešković benzinska pumpa' 'НЕС Петрол' 'Nešković' 'Petrol']</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>['Verano Motors' 'Auto salon "KRAMAR"' 'Sladaboni' 'Auto centar Tomić'
+ 'Autokomerc V.S. d.o.o.' 'Auto Plus d.o.o. Banja Luka' 'GT Auto' 'Metago'
+ 'AutoEconomic' 'Autokuća Jajčević d.o.o.'
+ 'Berlijeta d.o.o AMC Banja Luka' 'Lada Auto' 'AC Nešković'
+ 'Salon Banja Luka' 'Auto servis NV' '• ТОП ауто •' 'EXCLUSIVE AUTO'
+ 'ЛАДА Ауто д.о.о.' 'Ауди центар Бања Лука' 'Numero Uno'
+ 'Auto Das d.o.o. Banja Luka' 'AutoVizija' 'Autopark Banja Luka' 'Hyundai'
+ 'Amc Tinacco' 'Rent a Car Klikom' 'DS servis' 'Ауто пијаца'
+ 'ŠUMOOPREMA doo' 'MB Auto' 'Pneumatika todorinovic'
+ 'Balkan VIP Cars - Prodaja luksuznih vozila HR , BIH i SRB' 'GLS auto'
+ 'Central auto' 'ProdajSvojAuto.ba' 'KIK AUTO' 'Auto Leo' 'VD AUTO'
+ 'Rent A Car Economic']</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>['Паркинг сервис - ПАУК' 'Braće Podgornika 49 Parking' 'Паркинг Parking'
+ 'Parking Palas' 'Parking' 'Braće Podgornika 37b Parking' 'Parking'
+ 'Garaža Borik' 'Parking Old School Apartmani Banja Luka' 'Garaža Kampus'
+ 'Parking Stara Stanica' 'Bin bin parking' 'Parking Bulevar']</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
         <v>43827.8718487746</v>
       </c>
     </row>
@@ -3847,12 +4446,23 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>['"GLIGA" Comerc 3' '"GLIGA" Komerc 2' 'Kubik AS' 'Vemi' 'Đukić Oil'
+          <t>['"GLIGA" Komerc 2' 'Kubik AS' 'Vemi' 'Đukić Oil'
  'Супер Петрол - Клашнице 1' 'Super petrol 2' 'Fortuna Oil 2, Klašnice'
  'bp DRAGSTES']</t>
         </is>
       </c>
-      <c r="L58" t="n">
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>['Auto Servis i otpad BMW ŠUŠNJAR' 'Marketauto' 'Euromodus'
+ 'VW Brčko Gas Banja Luka']</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
         <v>560.9935391427707</v>
       </c>
     </row>
@@ -3906,12 +4516,20 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>['Nada' 'SAS Petrol d.o.o.' 'Gas Station' 'Kort Petrol' 'Gas Station'
- 'Nešković Pumpa' 'PASPALJ KOMERC' 'Brčko Gas' 'Ina' 'Petrol'
- 'Slavujica Petrol' 'Gas Station' 'Kuzmanović']</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
+          <t>['Slavujica Petrol']</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
         <v>163.3248551175031</v>
       </c>
     </row>
@@ -3962,12 +4580,22 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>['Antunović AGS' 'Gazprom' 'Gas Station' 'Hifa oil' 'Tankstella' 'Cerol'
- 'Autobuska stanica Šamac' 'BP ZEKO' 'Dragstes' 'Tankstella' 'Gas Station'
- 'ROX' 'Belamionix' 'Vidović']</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
+          <t>['Antunović AGS' 'Gazprom' 'Tankstella' 'Cerol' 'Autobuska stanica Šamac'
+ 'BP ZEKO' 'Dragstes' 'Tankstella' 'Gas Station' 'ROX' 'Belamionix'
+ 'Vidović']</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>['Stankovic Duško']</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
         <v>-1.932220730722343</v>
       </c>
     </row>
@@ -4019,71 +4647,89 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
+          <t>['Gas Station' 'Hifa oil']</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>['Паркинг за доставна возила' 'Parking za automobile'
+ 'Parking za automobile' 'Паркинг']</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
+        <v>13.54055519231646</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>215</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Vukosavlje (Jakeš) - Podnovlje</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>44.9830956, 18.278912</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>44.959264, 18.1164912</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>[(44.98304, 18.27897), (44.98282, 18.27852), (44.98282, 18.27851), (44.98243, 18.27776)]</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>20.075</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>['Novi Grad']</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>[44.9713   44.957807]</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>['Bau Centar' 'Робот' 'Retail Bingo' 'Tropic' 'Z.T.R. SS mont Modrica'
+ 'Agro-impex' 'Supermarket Košuta']</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
           <t>['Gas station novoprom' 'Optima benz d.o.o. OBG Modriča'
  'Slavuljica Petrol Jakeš' 'SLAVULJICA 2' 'Нешковић' 'Tankstella'
  'Kojo Komerc' 'Gas Station' 'NiG PROM d.o.o.' 'Slavuljica Petrol'
- 'Gas Station' 'ROX' 'Tankstella' 'Gas Station' 'Hifa oil']</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>13.54055519231646</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="n">
-        <v>215</v>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>Vukosavlje (Jakeš) - Podnovlje</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>44.9830956, 18.278912</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>44.959264, 18.1164912</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>[(44.98304, 18.27897), (44.98282, 18.27852), (44.98282, 18.27851), (44.98243, 18.27776)]</t>
-        </is>
-      </c>
-      <c r="G62" t="n">
-        <v>20.075</v>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>['Novi Grad']</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>[44.9713   44.957807]</t>
-        </is>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>['Bau Centar' 'Робот' 'Retail Bingo' 'Tropic' 'Z.T.R. SS mont Modrica'
- 'Agro-impex' 'Supermarket Košuta']</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>['Gas station novoprom' 'Optima benz d.o.o. OBG Modriča' 'Mako'
- 'Slavuljica Petrol Jakeš' 'SLAVULJICA 2' 'Нешковић' 'Tankstella'
- 'Kojo Komerc' 'Gas Station' 'NiG PROM d.o.o.' 'Slavuljica Petrol'
- 'Gas Station' 'Славуљица Петрол']</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
+ 'Gas Station']</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
         <v>-14.81982628259783</v>
       </c>
     </row>
@@ -4134,10 +4780,20 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>['Бијелић петрол' 'Tankstella' 'Petrol' 'Petrol']</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
+          <t>['Tankstella' 'Petrol' 'Petrol']</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>['Parking Restorana Jelen']</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
         <v>28.00158637869596</v>
       </c>
     </row>
@@ -4188,11 +4844,20 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>['Gas Station' 'Hifa-Oil' 'Бијелић петрол' 'Бато Петрол' 'Tankstella'
- 'Petrol']</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
+          <t>['Бијелић петрол']</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>['Parking Restorana Jelen']</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
         <v>44.48717764344901</v>
       </c>
     </row>
@@ -4251,7 +4916,17 @@
  'Gas Station' 'Kuzmanović']</t>
         </is>
       </c>
-      <c r="L65" t="n">
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
         <v>56.17924781382825</v>
       </c>
     </row>
@@ -4310,15 +4985,22 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>['НИС Петрол' 'Nešković' 'Intergaj' 'Gazprom' 'Euro Petrol Oil' 'Nešković'
- 'Nešković' '4. april-Trifković' 'Nešković' 'Padine Megasistem' 'Car Wash'
- 'Despotović' 'BRČKO GAS benzinska pumpa i motel' 'Нешковић' 'MancoM'
- 'Hifa Oil' 'Petrol BS Bijeljina' 'Hifa Oil' 'Петрол Агротехника'
- 'Samousluzna Praonica' 'Monaco' 'CSP benzinska pumpa Dvorovi' 'Нешковић'
- 'Agrokomerc' 'Teco Promet d.o.o.']</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
+          <t>['НИС Петрол' 'Nešković' 'Nešković' 'Nešković' '4. april-Trifković'
+ 'Nešković' 'Car Wash' 'Despotović' 'BRČKO GAS benzinska pumpa i motel'
+ 'Нешковић' 'MancoM' 'Petrol BS Bijeljina' 'CSP benzinska pumpa Dvorovi']</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>['LD Auto d.o.o.' 'Auto-centar D.O.O.']</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>['Parking kod Saborne crkve' 'Parking' 'Parking']</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
         <v>47.26841919708433</v>
       </c>
     </row>
@@ -4378,13 +5060,24 @@
       <c r="K67" t="inlineStr">
         <is>
           <t>['НИС Петрол' 'Nešković' 'Intergaj' 'Gazprom' 'Euro Petrol Oil' 'Nešković'
- 'Nešković' '4. april-Trifković' 'Nešković' 'Padine Megasistem' 'Car Wash'
- 'Despotović' 'BRČKO GAS benzinska pumpa i motel' 'Нешковић' 'MancoM'
- 'Hifa Oil' 'Hifa Oil' 'Петрол Агротехника' 'Samousluzna Praonica'
- 'Monaco' 'Нешковић' 'Agrokomerc' 'Teco Promet d.o.o.' 'БЛП' 'Нестро']</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
+ 'Nešković' '4. april-Trifković' 'Nešković' 'Car Wash' 'Despotović'
+ 'BRČKO GAS benzinska pumpa i motel' 'Нешковић' 'MancoM' 'Hifa Oil'
+ 'Петрол Агротехника' 'Samousluzna Praonica' 'Monaco' 'Нешковић'
+ 'Agrokomerc' 'Teco Promet d.o.o.']</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>['LD Auto d.o.o.' 'Auto elektricar Cosic-A' 'MPJ AUTO MAGACIN'
+ 'Ugljo - Automobili']</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>['Parking kod Saborne crkve' 'Parking' 'Parking']</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
         <v>686020.0535379912</v>
       </c>
     </row>
@@ -4435,10 +5128,20 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>['БЛП' 'Нестро']</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
+          <t>['БЛП']</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
         <v>-30.88830336375491</v>
       </c>
     </row>
@@ -4489,10 +5192,20 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>['SAS']</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
         <v>12.556</v>
       </c>
     </row>
@@ -4546,7 +5259,17 @@
           <t>['M3' 'САС Петрол']</t>
         </is>
       </c>
-      <c r="L70" t="n">
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>['Škrba autolakiranje' 'AC Gama motors']</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
         <v>366.0653563026712</v>
       </c>
     </row>
@@ -4600,7 +5323,17 @@
           <t>[]</t>
         </is>
       </c>
-      <c r="L71" t="n">
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
         <v>49.607</v>
       </c>
     </row>
@@ -4654,7 +5387,17 @@
           <t>[]</t>
         </is>
       </c>
-      <c r="L72" t="n">
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
         <v>21.58562446277224</v>
       </c>
     </row>
@@ -4705,10 +5448,20 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>['Nešković' 'НИС Петрол' 'Nešković' 'PavGord gas station']</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
         <v>-282.7070918313981</v>
       </c>
     </row>
@@ -4761,12 +5514,20 @@
       <c r="K74" t="inlineStr">
         <is>
           <t>['АгроВоће' 'BP DISKONT' 'CSP' 'Нешковић' 'BP Petrić' 'НИС Петрол'
- 'MN d.o.o. Loznica' 'НИС Петрол - Мали Зворник' 'МН' 'КESO - PROMET'
- 'Neškovic' 'SAS' 'HIFA Petrol' 'Оаза' 'EURO Petrol Oil' 'Dalprom Petrol'
- 'PETROL' 'D.O.O. "NINIC LINE"']</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
+ 'MN d.o.o. Loznica' 'D.O.O. "NINIC LINE"']</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
         <v>25.59141947389078</v>
       </c>
     </row>
@@ -4822,7 +5583,17 @@
  'HIFA Petrol' 'Оаза' 'EURO Petrol Oil' 'Dalprom Petrol' 'PETROL']</t>
         </is>
       </c>
-      <c r="L75" t="n">
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>['BISPAK doo' 'Auto Salon "A-Auto" Zvornik']</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
         <v>-3.779386194676127</v>
       </c>
     </row>
@@ -4873,10 +5644,20 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>['Benziska Pumpa' 'Petrol BS Vlasenica']</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
+          <t>['Benziska Pumpa']</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
         <v>51.02455089696589</v>
       </c>
     </row>
@@ -4927,10 +5708,20 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>['Benziska Pumpa' 'Petrol BS Vlasenica' 'Нешковић']</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
+          <t>['Нестро' 'Benziska Pumpa' 'Petrol BS Vlasenica']</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
         <v>-124.4725566180414</v>
       </c>
     </row>
@@ -4981,11 +5772,20 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>['Нешковић' 'Нестро Петрол' 'Neskovic' 'Нестро' 'MK Petrol' 'Нешковић'
- 'Nešković Sokolac' 'Tehnicki pregled vozila']</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
+          <t>['Нешковић']</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
         <v>67.55637099345361</v>
       </c>
     </row>
@@ -5036,11 +5836,21 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>['Нестро Петрол' 'Neskovic' 'Нестро' 'MK Petrol' 'Нешковић'
- 'Nešković Sokolac' 'Tehnicki pregled vozila']</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
+          <t>['Neskovic' 'Нестро' 'MK Petrol' 'Нешковић' 'Nešković Sokolac'
+ 'Tehnicki pregled vozila']</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>['Automehanika']</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
         <v>1684.167169603167</v>
       </c>
     </row>
@@ -5091,11 +5901,20 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>['Шпиц Петрол' 'Stijene Oil' 'Нестро Петрол' 'Neskovic' 'Нестро'
- 'MK Petrol']</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
+          <t>['Neskovic' 'Нестро' 'MK Petrol']</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
         <v>-19.90517899976298</v>
       </c>
     </row>
@@ -5146,11 +5965,20 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>['Нестро' 'Benzinska pumpa Nešković' 'Нешковић' 'Сарајевоинвест'
- 'Шпиц Петрол' 'Stijene Oil']</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
+          <t>['Шпиц Петрол' 'Stijene Oil']</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
         <v>11.06704577337648</v>
       </c>
     </row>
@@ -5201,10 +6029,20 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>['Нестро Петрол' 'Neskovic' 'Нестро' 'MK Petrol' 'NEŠKOVIĆ' 'NIS Petrol']</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
+          <t>['Neskovic' 'Нестро' 'MK Petrol']</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
         <v>-29.96506381387781</v>
       </c>
     </row>
@@ -5259,7 +6097,18 @@
           <t>['Petrol' 'Best Company Trebinje' 'ManCoM' 'Nešković']</t>
         </is>
       </c>
-      <c r="L83" t="n">
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>['SPAR Auto']</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>['Parking lot "Sjeverni logor"' 'Parking' 'Public Parking' 'Free parking'
+ 'JKP "Parking Servis"']</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
         <v>70.58827834743171</v>
       </c>
     </row>
@@ -5311,11 +6160,21 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>['Nešković benziska pumpa' 'Trgotrans' 'Petrol' 'Best Company Trebinje'
- 'ManCoM' 'Nešković']</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
+          <t>['Petrol' 'Best Company Trebinje' 'ManCoM' 'Nešković']</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>['SPAR Auto']</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>['Parking lot "Sjeverni logor"' 'Parking' 'Public Parking' 'Free parking'
+ 'JKP "Parking Servis"']</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
         <v>72643.42290805414</v>
       </c>
     </row>
@@ -5369,7 +6228,17 @@
           <t>['Nešković benziska pumpa' 'Trgotrans']</t>
         </is>
       </c>
-      <c r="L85" t="n">
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>['Ауто Шестовац']</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
         <v>593.380264613528</v>
       </c>
     </row>
@@ -5423,7 +6292,17 @@
           <t>['Nešković benziska pumpa' 'Trgotrans']</t>
         </is>
       </c>
-      <c r="L86" t="n">
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>['Ауто Шестовац']</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
         <v>43.80559694271463</v>
       </c>
     </row>
@@ -5474,10 +6353,20 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>['Gas station "Nešković"' 'ManCoM Gacko']</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
         <v>51.47661446738964</v>
       </c>
     </row>
@@ -5528,10 +6417,20 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>['Gas station "Nešković"' 'ManCoM Gacko' 'Pumpa RiTE']</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
+          <t>['Gas station "Nešković"' 'ManCoM Gacko']</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
         <v>4.022939839336018</v>
       </c>
     </row>
@@ -5586,7 +6485,17 @@
           <t>['Nešković' 'НИС Петрол' 'Nešković' 'PavGord gas station']</t>
         </is>
       </c>
-      <c r="L89" t="n">
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>['MIRAKIS']</t>
+        </is>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
         <v>92.66626681725687</v>
       </c>
     </row>
@@ -5641,7 +6550,17 @@
           <t>['Nešković' 'НИС Петрол' 'Nešković']</t>
         </is>
       </c>
-      <c r="L90" t="n">
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>['MIRAKIS']</t>
+        </is>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
         <v>6369.91452016594</v>
       </c>
     </row>
@@ -5695,7 +6614,17 @@
           <t>[]</t>
         </is>
       </c>
-      <c r="L91" t="n">
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
         <v>11.353</v>
       </c>
     </row>
@@ -5760,15 +6689,38 @@
       <c r="K92" t="inlineStr">
         <is>
           <t>['Petrol' 'Krajinapetrol' 'Крајинапетрол' 'Super Petrol' 'ЕуроБенз'
- 'BS Gazprom Banja Luka' 'Крајина петрол' 'Knez Petrol BIH' 'Gas petrol'
- 'Naftaco' 'Nešković' 'Nešković' 'NES Petrol'
- 'ХИФА Петрол Република Српска' 'Petrol' 'NES Petrol' 'Нешковић'
- 'Super Petrol' 'Гас Петрол' 'ТиОил' 'Krajinapotrol' 'Krajinapetrol'
- 'Super Petrol- BS Borik' 'Nešković benzinska pumpa' 'НЕС Петрол'
- 'Nešković' 'Petrol' 'Obilićevo']</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
+ 'BS Gazprom Banja Luka' 'Крајина петрол' 'Gas petrol' 'Naftaco'
+ 'Nešković' 'Nešković' 'NES Petrol' 'ХИФА Петрол Република Српска'
+ 'Petrol' 'NES Petrol' 'Нешковић' 'Super Petrol' 'Гас Петрол' 'ТиОил'
+ 'Krajinapotrol' 'Нестро' 'Krajinapetrol' 'Super Petrol- BS Borik'
+ 'Nešković benzinska pumpa' 'НЕС Петрол' 'Nešković' 'Petrol']</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>['Verano Motors' 'Auto salon "KRAMAR"' 'Sladaboni' 'Auto centar Tomić'
+ 'Autokomerc V.S. d.o.o.' 'Auto Plus d.o.o. Banja Luka' 'GT Auto' 'Metago'
+ 'AutoEconomic' 'Autokuća Jajčević d.o.o.'
+ 'Berlijeta d.o.o AMC Banja Luka' 'Lada Auto' 'AC Nešković'
+ 'Salon Banja Luka' 'Auto servis NV' '• ТОП ауто •' 'EXCLUSIVE AUTO'
+ 'ЛАДА Ауто д.о.о.' 'Ауди центар Бања Лука' 'Numero Uno'
+ 'Auto Das d.o.o. Banja Luka' 'AutoVizija' 'Autopark Banja Luka' 'Hyundai'
+ 'Amc Tinacco' 'Rent a Car Klikom' 'DS servis' 'Ауто пијаца'
+ 'ŠUMOOPREMA doo' 'MB Auto' 'Pneumatika todorinovic'
+ 'Balkan VIP Cars - Prodaja luksuznih vozila HR , BIH i SRB' 'GLS auto'
+ 'Central auto' 'ProdajSvojAuto.ba' 'KIK AUTO' 'Auto Leo' 'VD AUTO'
+ 'Rent A Car Economic']</t>
+        </is>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>['Паркинг сервис - ПАУК' 'Braće Podgornika 49 Parking' 'Паркинг Parking'
+ 'Parking Palas' 'Parking' 'Braće Podgornika 37b Parking' 'Parking'
+ 'Garaža Borik' 'Parking Old School Apartmani Banja Luka' 'Garaža Kampus'
+ 'Parking Stara Stanica' 'Bin bin parking' 'Parking Bulevar']</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
         <v>4123401.792386129</v>
       </c>
     </row>
@@ -5819,10 +6771,20 @@
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>['Slavuljica 1' 'Slavuljica 2' 'Paspalj']</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
         <v>90.72687453199957</v>
       </c>
     </row>
@@ -5876,7 +6838,17 @@
           <t>[]</t>
         </is>
       </c>
-      <c r="L94" t="n">
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
         <v>8.069494174489639</v>
       </c>
     </row>
@@ -5932,11 +6904,20 @@
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>['Super Petrol' 'BS Gazprom Banja Luka' 'Крајина петрол' 'Tankstella'
- 'ТиОил' 'Krajinapetrol' 'НЕС Петрол' 'Nešković' 'Petrol' 'Obilićevo']</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
         <v>-213.4542032742203</v>
       </c>
     </row>
@@ -5990,7 +6971,17 @@
           <t>[]</t>
         </is>
       </c>
-      <c r="L96" t="n">
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
         <v>38.53263503003464</v>
       </c>
     </row>
@@ -6049,7 +7040,17 @@
  'Benzinska Pumpa RIKA' 'Zeka-comerc' 'Trgovir']</t>
         </is>
       </c>
-      <c r="L97" t="n">
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>['ŠKODA Brijest' 'Serhatlić']</t>
+        </is>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>['Parking Fis']</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
         <v>656.8346591327277</v>
       </c>
     </row>
@@ -6100,10 +7101,20 @@
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>['Krajinapetrol' 'Medeks Prom' 'Petrogenex']</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
         <v>18.74760446538782</v>
       </c>
     </row>
@@ -6154,11 +7165,20 @@
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>['Krajinapetrol' 'Medeks Prom' 'Petrogenex' 'INA' 'Benzinska pumpa ABA'
- 'TIOIL']</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
+          <t>['Krajinapetrol' 'Medeks Prom' 'Petrogenex']</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>['Ideal Auto Šipovo']</t>
+        </is>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
         <v>1816.889695462899</v>
       </c>
     </row>
@@ -6212,7 +7232,17 @@
           <t>['Krajinapetrol' 'Medeks Prom' 'Petrogenex']</t>
         </is>
       </c>
-      <c r="L100" t="n">
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>['Ideal Auto Šipovo']</t>
+        </is>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
         <v>605.5074732106448</v>
       </c>
     </row>
@@ -6266,7 +7296,17 @@
           <t>[]</t>
         </is>
       </c>
-      <c r="L101" t="n">
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
         <v>509.9740340859861</v>
       </c>
     </row>
@@ -6317,10 +7357,20 @@
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>['Dabar']</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
         <v>55.82651920482252</v>
       </c>
     </row>
@@ -6374,7 +7424,17 @@
           <t>['Dabar']</t>
         </is>
       </c>
-      <c r="L103" t="inlineStr"/>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>['BIS AUTO d.o.o.']</t>
+        </is>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -6423,10 +7483,20 @@
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>['Nešković benziska pumpa' 'Trgotrans' 'Hellas d.o.o.']</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
+          <t>['Hellas d.o.o.']</t>
+        </is>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
         <v>4.091765294674401</v>
       </c>
     </row>
@@ -6480,7 +7550,17 @@
           <t>['Nešković benziska pumpa' 'Trgotrans']</t>
         </is>
       </c>
-      <c r="L105" t="n">
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>['Ауто Шестовац']</t>
+        </is>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
         <v>2590.736936433931</v>
       </c>
     </row>
@@ -6531,10 +7611,20 @@
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>['Benzinska pumpa']</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
         <v>15.753</v>
       </c>
     </row>
@@ -6588,7 +7678,17 @@
           <t>[]</t>
         </is>
       </c>
-      <c r="L107" t="n">
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
         <v>185.0516389909126</v>
       </c>
     </row>
@@ -6642,7 +7742,17 @@
           <t>['Benzinska pumpa']</t>
         </is>
       </c>
-      <c r="L108" t="n">
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
         <v>8.786</v>
       </c>
     </row>
@@ -6696,7 +7806,17 @@
           <t>[]</t>
         </is>
       </c>
-      <c r="L109" t="n">
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
         <v>43.48139066172872</v>
       </c>
     </row>
@@ -6747,10 +7867,20 @@
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>['Pojužina benz' 'Đerić PROM' 'ЗиС компанија']</t>
-        </is>
-      </c>
-      <c r="L110" t="inlineStr"/>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -6799,10 +7929,20 @@
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>['Dabar' 'Pojužina benz' 'Đerić PROM' 'ЗиС компанија']</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
+          <t>['Pojužina benz' 'Đerić PROM' 'ЗиС компанија']</t>
+        </is>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>['Autosalon Đuro']</t>
+        </is>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
         <v>3759333.908591094</v>
       </c>
     </row>
@@ -6853,10 +7993,20 @@
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>['Slavuljica Petrol' 'Puđić benz']</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
+          <t>['Puđić benz']</t>
+        </is>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>['AUTO MARIO d.o.o.']</t>
+        </is>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
         <v>223.6480613365076</v>
       </c>
     </row>
@@ -6907,10 +8057,20 @@
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>['Нешковић / Nešković']</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
         <v>245.4613212201024</v>
       </c>
     </row>
@@ -6961,10 +8121,20 @@
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>['Шпиц Петрол' 'Нешковић/ Nešković' 'Stijene Oil']</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
+          <t>['Нешковић/ Nešković']</t>
+        </is>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>['Перфект / Perfect']</t>
+        </is>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>['Грин-Стоп, Парковка']</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
         <v>176.511369963697</v>
       </c>
     </row>
@@ -7018,7 +8188,17 @@
           <t>['Energopetrol' 'Hifa' 'TZS OIL' 'El Tarik Oil']</t>
         </is>
       </c>
-      <c r="L115" t="n">
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>['Parking' 'Carinski terminal']</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
         <v>47.90621237774887</v>
       </c>
     </row>
@@ -7072,7 +8252,17 @@
           <t>[]</t>
         </is>
       </c>
-      <c r="L116" t="n">
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
         <v>-40942.12045248182</v>
       </c>
     </row>
@@ -7126,7 +8316,17 @@
           <t>['NEŠKOVIĆ' 'NIS Petrol']</t>
         </is>
       </c>
-      <c r="L117" t="n">
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
         <v>1.653403046771788</v>
       </c>
     </row>
@@ -7180,7 +8380,17 @@
           <t>[]</t>
         </is>
       </c>
-      <c r="L118" t="n">
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
         <v>54.5891614479028</v>
       </c>
     </row>
@@ -7232,11 +8442,20 @@
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>['Desko Petrol' 'Knez Petrol' 'Lukoil' 'NIS Petrol - Bajina Bašta'
- 'МИФ Петрол']</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>['Паркинг код Зелене Дрине']</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
         <v>50.554</v>
       </c>
     </row>
@@ -7290,7 +8509,17 @@
           <t>[]</t>
         </is>
       </c>
-      <c r="L120" t="n">
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
         <v>2.513364097022527</v>
       </c>
     </row>
@@ -7341,11 +8570,20 @@
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>['Ранкић' 'Нешковић' 'Ранкић' 'Hifa Petrol' 'Desko' 'MIF PETROL'
- 'Дрина Петрол' 'Ранкић' 'Дуда Инвест']</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>['Parking']</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
         <v>1.048830950997072</v>
       </c>
     </row>
@@ -7399,11 +8637,20 @@
       <c r="K122" t="inlineStr">
         <is>
           <t>['Ранкић' 'Нешковић' 'Ранкић' 'Hifa Petrol' 'Desko' 'MIF PETROL'
- 'Дрина Петрол' 'Ранкић' 'Дуда Инвест' 'Desko Petrol' 'Knez Petrol'
- 'Lukoil' 'NIS Petrol - Bajina Bašta' 'МИФ Петрол']</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
+ 'Дрина Петрол' 'Ранкић' 'Дуда Инвест']</t>
+        </is>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>['Parking' 'Паркинг код Зелене Дрине']</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
         <v>-138849.6719933496</v>
       </c>
     </row>
@@ -7458,7 +8705,17 @@
  'Дрина Петрол' 'Ранкић' 'Дуда Инвест']</t>
         </is>
       </c>
-      <c r="L123" t="inlineStr"/>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>['Parking']</t>
+        </is>
+      </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -7507,10 +8764,20 @@
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>['KESO - PROMET' 'Mahala br-30' 'SAS']</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
+          <t>['Нестро / Nestro']</t>
+        </is>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
         <v>9017.937355821878</v>
       </c>
     </row>
@@ -7561,10 +8828,20 @@
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
+          <t>['Нестро / Nestro']</t>
+        </is>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
         <v>37182.374298421</v>
       </c>
     </row>
@@ -7615,10 +8892,20 @@
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>['SAS' 'Benzinska Stanica Neskovic' 'SAS']</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
+          <t>['SAS']</t>
+        </is>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
         <v>9.706949552980847</v>
       </c>
     </row>
@@ -7669,10 +8956,20 @@
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>['“Fasogas” Šibošnica' 'Gas Station']</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
+          <t>['“Fasogas” Šibošnica']</t>
+        </is>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
         <v>1.23</v>
       </c>
     </row>
@@ -7727,7 +9024,17 @@
           <t>['Nešković' 'НИС Петрол' 'Nešković' 'PavGord gas station']</t>
         </is>
       </c>
-      <c r="L128" t="n">
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>['MIRAKIS']</t>
+        </is>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
         <v>92.66626681725687</v>
       </c>
     </row>
@@ -7781,7 +9088,17 @@
           <t>[]</t>
         </is>
       </c>
-      <c r="L129" t="n">
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
         <v>666.2210332639231</v>
       </c>
     </row>
@@ -7835,7 +9152,17 @@
           <t>['Tehnopetrol Benzinska Pumpa']</t>
         </is>
       </c>
-      <c r="L130" t="n">
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>['Mirza Auto doo']</t>
+        </is>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>['Parking bazeni Mrkaljević']</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
         <v>11.091</v>
       </c>
     </row>
@@ -7886,10 +9213,20 @@
       </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>['БЛП' 'Нестро']</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
         <v>15.64081883439749</v>
       </c>
     </row>
@@ -7940,10 +9277,20 @@
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>['MDM COMPANY' 'Ristić' 'BP DISKONT']</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
         <v>19.63231162733954</v>
       </c>
     </row>
@@ -7998,7 +9345,17 @@
  'Benzinska Pumpa Rottal']</t>
         </is>
       </c>
-      <c r="L133" t="n">
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
         <v>121.2972201730275</v>
       </c>
     </row>
@@ -8049,10 +9406,20 @@
       </c>
       <c r="K134" t="inlineStr">
         <is>
-          <t>['Gas Station' 'Belamionix' 'BOŽIĆ PETROL' 'Tankstella' 'Vinković Junior']</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
+          <t>['Gas Station' 'Belamionix']</t>
+        </is>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
         <v>15.57264012948557</v>
       </c>
     </row>
@@ -8103,14 +9470,20 @@
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>['Brcko gas - benzinska pumpa i samousluzna praonica'
- 'Брчко гас БП Лончари 1'
- 'Brčko gas BP Lončari 2 - Брчко гас БП Лончари 2' 'Tankstella' 'Agreks'
- 'Tankstella' 'Nikic Company' 'DANE KOMERC' 'BOŽIĆ PETROL' 'Tankstella'
- 'Euro Benz Auto Plin']</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
+          <t>['BOŽIĆ PETROL' 'Tankstella']</t>
+        </is>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
         <v>13.90853804390439</v>
       </c>
     </row>
@@ -8161,10 +9534,20 @@
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>['BOŽIĆ PETROL' 'Tankstella' 'Vinković Junior']</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
+          <t>['BOŽIĆ PETROL' 'Tankstella']</t>
+        </is>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
         <v>6.508340182238816</v>
       </c>
     </row>
@@ -8218,7 +9601,17 @@
           <t>['BOŽIĆ PETROL' 'Tankstella' 'Vinković Junior']</t>
         </is>
       </c>
-      <c r="L137" t="n">
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
         <v>17.08152874371243</v>
       </c>
     </row>
@@ -8269,68 +9662,86 @@
       </c>
       <c r="K138" t="inlineStr">
         <is>
+          <t>['Tankstella' 'Cerol' 'Autobuska stanica Šamac' 'BP ZEKO' 'Dragstes' 'ROX']</t>
+        </is>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>['Stankovic Duško']</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
+        <v>6.294942233354846</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>745</v>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Šamac 1 - Grebnice</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>45.0610659, 18.4690346</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>45.0471385, 18.5169987</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>[(45.06071, 18.46881), (45.06051, 18.46948), (45.06041, 18.46982), (45.05984, 18.47186), (45.0595, 18.47303), (45.05926, 18.47385)]</t>
+        </is>
+      </c>
+      <c r="G139" t="n">
+        <v>8.563000000000001</v>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>[45.053925]</t>
+        </is>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>['Prud Sloga' 'KORT' 'SGS Laminati' 'Bingo' 'My Home']</t>
+        </is>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
           <t>['Antunović AGS' 'Gazprom' 'Tankstella' 'Cerol' 'Autobuska stanica Šamac'
  'BP ZEKO' 'Dragstes' 'Tankstella' 'Gas Station' 'ROX' 'Belamionix'
  'Vidović']</t>
         </is>
       </c>
-      <c r="L138" t="n">
-        <v>6.294942233354846</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>745</v>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>Šamac 1 - Grebnice</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>45.0610659, 18.4690346</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>45.0471385, 18.5169987</t>
-        </is>
-      </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>[(45.06071, 18.46881), (45.06051, 18.46948), (45.06041, 18.46982), (45.05984, 18.47186), (45.0595, 18.47303), (45.05926, 18.47385)]</t>
-        </is>
-      </c>
-      <c r="G139" t="n">
-        <v>8.563000000000001</v>
-      </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="I139" t="inlineStr">
-        <is>
-          <t>[45.053925]</t>
-        </is>
-      </c>
-      <c r="J139" t="inlineStr">
-        <is>
-          <t>['Prud Sloga' 'KORT' 'SGS Laminati' 'Bingo' 'My Home']</t>
-        </is>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>['Antunović AGS' 'Gazprom' 'Tankstella' 'Cerol' 'Autobuska stanica Šamac'
- 'BP ZEKO' 'Dragstes' 'Tankstella' 'Gas Station' 'ROX' 'Belamionix'
- 'Vidović']</t>
-        </is>
-      </c>
-      <c r="L139" t="n">
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>['Stankovic Duško']</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
         <v>-16.10195463594047</v>
       </c>
     </row>
@@ -8381,10 +9792,20 @@
       </c>
       <c r="K140" t="inlineStr">
         <is>
-          <t>['Бато Петрол' 'Bp Bato Petrol' 'Tatić d.o.o.' 'Sultan benz']</t>
-        </is>
-      </c>
-      <c r="L140" t="n">
+          <t>['Bp Bato Petrol' 'Sultan benz']</t>
+        </is>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
         <v>82.45510850391832</v>
       </c>
     </row>
@@ -8436,13 +9857,21 @@
       </c>
       <c r="K141" t="inlineStr">
         <is>
-          <t>['Бато Петрол' 'Bp Bato Petrol' 'Tatić d.o.o.' 'Gas station novoprom'
- 'Optima benz d.o.o. OBG Modriča' 'Slavuljica Petrol Jakeš' 'SLAVULJICA 2'
- 'Нешковић' 'Tankstella' 'Kojo Komerc' 'Gas Station' 'NiG PROM d.o.o.'
- 'Slavuljica Petrol' 'Gas Station' 'ROX' 'Tankstella']</t>
-        </is>
-      </c>
-      <c r="L141" t="n">
+          <t>['Бато Петрол' 'Bp Bato Petrol' 'Tatić d.o.o.']</t>
+        </is>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>['Паркинг за доставна возила' 'Parking za automobile'
+ 'Parking za automobile' 'Паркинг']</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
         <v>83.45790097064557</v>
       </c>
     </row>
@@ -8496,7 +9925,17 @@
           <t>['Бато Петрол' 'Bp Bato Petrol' 'Tatić d.o.o.']</t>
         </is>
       </c>
-      <c r="L142" t="n">
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N142" t="n">
         <v>84.51234782741572</v>
       </c>
     </row>
@@ -8547,10 +9986,20 @@
       </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>['Нешковић']</t>
-        </is>
-      </c>
-      <c r="L143" t="n">
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N143" t="n">
         <v>20.61034598738592</v>
       </c>
     </row>
@@ -8604,7 +10053,17 @@
           <t>['Нешковић']</t>
         </is>
       </c>
-      <c r="L144" t="n">
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N144" t="n">
         <v>30.4263616969589</v>
       </c>
     </row>
@@ -8658,7 +10117,17 @@
           <t>[]</t>
         </is>
       </c>
-      <c r="L145" t="n">
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N145" t="n">
         <v>14.611773103004</v>
       </c>
     </row>
@@ -8709,10 +10178,20 @@
       </c>
       <c r="K146" t="inlineStr">
         <is>
-          <t>['Нестро']</t>
-        </is>
-      </c>
-      <c r="L146" t="n">
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N146" t="n">
         <v>50.51274055371743</v>
       </c>
     </row>
@@ -8763,11 +10242,20 @@
       </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>['Nada' 'Hifa Petrol' 'SAS Petrol d.o.o.' 'Gas Station' 'Mako'
- 'Славуљица Петрол']</t>
-        </is>
-      </c>
-      <c r="L147" t="n">
+          <t>['Nada' 'Hifa Petrol' 'SAS Petrol d.o.o.' 'Gas Station']</t>
+        </is>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>['Eden']</t>
+        </is>
+      </c>
+      <c r="N147" t="n">
         <v>23.17835846384645</v>
       </c>
     </row>
@@ -8823,12 +10311,20 @@
       </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>['Нестро / Nestro' 'Hifa Petrol' 'Нестро' 'Hifa-Oil'
- 'Bato Petrol BPS Teslić 5' 'Praonica "TRG"-Teslić' 'Силви'
- 'Нешковић / Nešković' 'Славуљица Петрол']</t>
-        </is>
-      </c>
-      <c r="L148" t="n">
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N148" t="n">
         <v>29.91533363908171</v>
       </c>
     </row>
@@ -8889,7 +10385,17 @@
  'Нешковић / Nešković' 'Славуљица Петрол']</t>
         </is>
       </c>
-      <c r="L149" t="n">
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>['Имола']</t>
+        </is>
+      </c>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N149" t="n">
         <v>17.33102717362768</v>
       </c>
     </row>
@@ -8950,7 +10456,17 @@
  'Нешковић / Nešković' 'Славуљица Петрол']</t>
         </is>
       </c>
-      <c r="L150" t="inlineStr"/>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>['Имола']</t>
+        </is>
+      </c>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -9002,7 +10518,17 @@
           <t>['Krajinapetrol' 'Neskovic' 'Nesković' 'Slavuljica Petrol']</t>
         </is>
       </c>
-      <c r="L151" t="n">
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>['Продаја половних аутомобила' 'Terracar Salon' 'Terracar d.o.o. Srbac']</t>
+        </is>
+      </c>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N151" t="n">
         <v>107417.9110881564</v>
       </c>
     </row>
@@ -9053,10 +10579,20 @@
       </c>
       <c r="K152" t="inlineStr">
         <is>
-          <t>['KUBIK AS' 'Бијелић петрол']</t>
-        </is>
-      </c>
-      <c r="L152" t="n">
+          <t>['KUBIK AS']</t>
+        </is>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N152" t="n">
         <v>113.3463651510216</v>
       </c>
     </row>
@@ -9107,10 +10643,20 @@
       </c>
       <c r="K153" t="inlineStr">
         <is>
-          <t>['Auto Gas' 'Ibos Petrol' 'KRAJINAPETROL' 'Bozic Promet' 'Guber Oil']</t>
-        </is>
-      </c>
-      <c r="L153" t="n">
+          <t>['Auto Gas' 'Ibos Petrol' 'KRAJINAPETROL' 'Bozic Promet']</t>
+        </is>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N153" t="n">
         <v>26314.58407657087</v>
       </c>
     </row>
@@ -9162,11 +10708,20 @@
       </c>
       <c r="K154" t="inlineStr">
         <is>
-          <t>['Ina' 'Auto Commerce' 'Benzinska pumpa SIMARK d.o.o.' 'Auto comerc'
- 'Esso Petrol' 'Petrol']</t>
-        </is>
-      </c>
-      <c r="L154" t="n">
+          <t>['Benzinska pumpa SIMARK d.o.o.']</t>
+        </is>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N154" t="n">
         <v>66.75140679300938</v>
       </c>
     </row>
@@ -9217,11 +10772,20 @@
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>['Nešković' 'NEŠKOVIC' '"DRAGSTES" Benzinska Pumpa' 'Delta Petrol' 'OKMT'
- 'Dejanac Promet' 'Hifa Petrol']</t>
-        </is>
-      </c>
-      <c r="L155" t="n">
+          <t>['OKMT' 'Dejanac Promet' 'Hifa Petrol']</t>
+        </is>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>['Auto salon Boroja' 'Auto Nezic']</t>
+        </is>
+      </c>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N155" t="n">
         <v>47.23527984152221</v>
       </c>
     </row>
@@ -9273,11 +10837,21 @@
       </c>
       <c r="K156" t="inlineStr">
         <is>
-          <t>['Benzinska pumpa' 'Ina' 'Auto Commerce' 'Benzinska pumpa SIMARK d.o.o.'
- 'Auto comerc' 'Esso Petrol' 'Petrol']</t>
-        </is>
-      </c>
-      <c r="L156" t="n">
+          <t>['Ina' 'Auto Commerce' 'Benzinska pumpa SIMARK d.o.o.' 'Auto comerc'
+ 'Esso Petrol' 'Petrol']</t>
+        </is>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N156" t="n">
         <v>650.3715481894959</v>
       </c>
     </row>
@@ -9335,15 +10909,31 @@
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>['"GLIGA" Comerc 3' '"GLIGA" Komerc 2' 'Kubik AS' 'Petrol' 'Petrol'
- 'Krajinapetrol' 'Vemi' 'Đukić Oil' 'Супер Петрол - Клашнице 1'
- 'Super petrol 2' 'Fortuna Oil 2, Klašnice' 'bp DRAGSTES' 'BPS MILCO'
- 'NIS Petrol' 'NIS Petrol 2' 'Nešković' 'Krajinapetrol' 'Gagi Petrol'
- 'Gas petrol' 'Naftaco' 'Nešković' 'Nešković' 'NES Petrol'
- 'ХИФА Петрол Република Српска' 'Petrol']</t>
-        </is>
-      </c>
-      <c r="L157" t="n">
+          <t>['Petrol' 'Petrol' 'Krajinapetrol' 'NIS Petrol' 'NIS Petrol 2' 'Nešković'
+ 'Krajinapetrol' 'Gagi Petrol' 'Gas petrol' 'Naftaco' 'Nešković'
+ 'Nešković' 'NES Petrol' 'ХИФА Петрол Република Српска' 'Petrol']</t>
+        </is>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>['Verano Motors' 'Auto salon "KRAMAR"' 'Sladaboni' 'Optimum S.P.'
+ 'Suzuki Centar' 'Auto Plus BH' 'OMNIAauto' 'DM Topić auto' 'Kljajić auto'
+ 'Hit Auto' 'DR Auto doo' 'Prodavac polovnih automobila'
+ 'Prodaja polovnih automobila' 'GUMA M Banja Luka' 'C-Auto'
+ 'Auto Plus d.o.o. Banja Luka' 'GT Auto' 'Metago' 'AutoEconomic'
+ 'Autokuća Jajčević d.o.o.' 'Berlijeta d.o.o AMC Banja Luka' 'Lada Auto'
+ 'AC Nešković' 'Salon Banja Luka' 'Auto servis NV'
+ 'Prodaja polovnih automobila' 'Hyundai' 'Amc Tinacco'
+ "Rale's Rupa Don House" 'DS servis' 'Ауто пијаца' 'ŠUMOOPREMA doo'
+ 'Pneumatika todorinovic' 'GLS auto' 'VD AUTO' 'Rent A Car Economic']</t>
+        </is>
+      </c>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>['P+R Bingo - Park and ride']</t>
+        </is>
+      </c>
+      <c r="N157" t="n">
         <v>212.2287200775222</v>
       </c>
     </row>
@@ -9394,10 +10984,20 @@
       </c>
       <c r="K158" t="inlineStr">
         <is>
-          <t>['Tankstella' 'Petrol' 'Gas Station' 'Kuzmanović' 'Petrol']</t>
-        </is>
-      </c>
-      <c r="L158" t="n">
+          <t>['Gas Station' 'Kuzmanović']</t>
+        </is>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>['Parking Restorana Jelen']</t>
+        </is>
+      </c>
+      <c r="N158" t="n">
         <v>87.48368112030207</v>
       </c>
     </row>
